--- a/base_cards.xlsx
+++ b/base_cards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>title</t>
   </si>
@@ -30,13 +30,22 @@
     <t>price</t>
   </si>
   <si>
-    <t>Утренний</t>
-  </si>
-  <si>
-    <t>Дневной</t>
-  </si>
-  <si>
-    <t>Полного дня</t>
+    <t>Утренний (год)</t>
+  </si>
+  <si>
+    <t>Дневной (год)</t>
+  </si>
+  <si>
+    <t>Полного дня (год)</t>
+  </si>
+  <si>
+    <t>Утренний (6 мес)</t>
+  </si>
+  <si>
+    <t>Дневной (6 мес)</t>
+  </si>
+  <si>
+    <t>Полного дня (6 мес)</t>
   </si>
 </sst>
 </file>
@@ -354,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -409,6 +418,39 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/base_cards.xlsx
+++ b/base_cards.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -401,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3000</v>
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>7500</v>
@@ -423,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3900</v>
@@ -434,7 +434,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1900</v>
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>5500</v>

--- a/base_cards.xlsx
+++ b/base_cards.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -401,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="C3">
         <v>3000</v>
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="C4">
         <v>7500</v>
@@ -423,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <v>3900</v>
@@ -434,7 +434,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="C6">
         <v>1900</v>
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>5500</v>
